--- a/Test_data/Test_data.xlsx
+++ b/Test_data/Test_data.xlsx
@@ -4,19 +4,19 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Reg" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="login" sheetId="4" r:id="rId2"/>
+    <sheet name="Sheet1" r:id="rId6" sheetId="5"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="36">
   <si>
     <t>First_name</t>
   </si>
@@ -55,12 +55,82 @@
   </si>
   <si>
     <t>xyz@123</t>
+  </si>
+  <si>
+    <t>Rani</t>
+  </si>
+  <si>
+    <t>r</t>
+  </si>
+  <si>
+    <t>rani@gmail.com</t>
+  </si>
+  <si>
+    <t>Rani@123</t>
+  </si>
+  <si>
+    <t>Demo</t>
+  </si>
+  <si>
+    <t>d</t>
+  </si>
+  <si>
+    <t>demo@gmail</t>
+  </si>
+  <si>
+    <t>demo@123</t>
+  </si>
+  <si>
+    <t>data</t>
+  </si>
+  <si>
+    <t>vaild</t>
+  </si>
+  <si>
+    <t>Rani@1234</t>
+  </si>
+  <si>
+    <t>invaild</t>
+  </si>
+  <si>
+    <t>testsataus</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>abc@123</t>
+  </si>
+  <si>
+    <t>status</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Age</t>
+  </si>
+  <si>
+    <t>Score</t>
+  </si>
+  <si>
+    <t>Alice</t>
+  </si>
+  <si>
+    <t>Bob</t>
+  </si>
+  <si>
+    <t>Charlie</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -404,36 +474,50 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G4" sqref="A1:G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" customWidth="true" width="16.85546875"/>
+    <col min="2" max="2" customWidth="true" width="16.140625"/>
+    <col min="3" max="3" customWidth="true" width="18.85546875"/>
+    <col min="4" max="4" customWidth="true" width="15.140625"/>
+    <col min="5" max="5" customWidth="true" width="14.0"/>
+    <col min="7" max="7" customWidth="true" width="11.140625"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" t="s" s="0">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" t="s" s="0">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" t="s" s="0">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" t="s" s="0">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" t="s" s="0">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="F1" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="G1" t="s" s="0">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s" s="0">
         <v>5</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" t="s" s="0">
         <v>6</v>
       </c>
       <c r="C2" s="1" t="s">
@@ -445,12 +529,15 @@
       <c r="E2" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="F2" t="s" s="0">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s" s="0">
         <v>9</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" t="s" s="0">
         <v>10</v>
       </c>
       <c r="C3" s="1" t="s">
@@ -461,6 +548,49 @@
       </c>
       <c r="E3" s="1" t="s">
         <v>12</v>
+      </c>
+      <c r="F3" t="s" s="0">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="B4" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" t="s" s="0">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="B5" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" t="s" s="0">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -471,6 +601,12 @@
     <hyperlink ref="C3" r:id="rId4"/>
     <hyperlink ref="D3" r:id="rId5"/>
     <hyperlink ref="E3" r:id="rId6"/>
+    <hyperlink ref="C4" r:id="rId7"/>
+    <hyperlink ref="D4" r:id="rId8"/>
+    <hyperlink ref="E4" r:id="rId9"/>
+    <hyperlink ref="C5" r:id="rId10"/>
+    <hyperlink ref="D5" r:id="rId11"/>
+    <hyperlink ref="E5" r:id="rId12"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -478,24 +614,129 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" customWidth="true" width="25.28515625"/>
+    <col min="2" max="2" customWidth="true" width="24.140625"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="B1" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="D1" t="s" s="0">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" t="s" s="0">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1"/>
+    <hyperlink ref="B2" r:id="rId2"/>
+    <hyperlink ref="A3" r:id="rId3"/>
+    <hyperlink ref="B3" r:id="rId4"/>
+    <hyperlink ref="A4" r:id="rId5"/>
+    <hyperlink ref="B4" r:id="rId6"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="B1" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="C1" t="s" s="0">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="B2" t="n" s="0">
+        <v>25.0</v>
+      </c>
+      <c r="C2" t="n" s="0">
+        <v>85.5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="B3" t="n" s="0">
+        <v>30.0</v>
+      </c>
+      <c r="C3" t="n" s="0">
+        <v>90.0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="0">
+        <v>35</v>
+      </c>
+      <c r="B4" t="n" s="0">
+        <v>28.0</v>
+      </c>
+      <c r="C4" t="n" s="0">
+        <v>88.0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/Test_data/Test_data.xlsx
+++ b/Test_data/Test_data.xlsx
@@ -4,19 +4,19 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Reg" sheetId="1" r:id="rId1"/>
     <sheet name="login" sheetId="4" r:id="rId2"/>
-    <sheet name="Sheet1" r:id="rId6" sheetId="5"/>
+    <sheet name="Sheet1" sheetId="5" r:id="rId3"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="37">
   <si>
     <t>First_name</t>
   </si>
@@ -124,6 +124,9 @@
   </si>
   <si>
     <t>Charlie</t>
+  </si>
+  <si>
+    <t>Pass</t>
   </si>
 </sst>
 </file>
@@ -476,8 +479,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G4" sqref="A1:G5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6:G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -531,6 +534,9 @@
       </c>
       <c r="F2" t="s" s="0">
         <v>22</v>
+      </c>
+      <c r="G2" t="s" s="0">
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -616,7 +622,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -684,15 +690,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s" s="0">
         <v>30</v>
       </c>
@@ -703,40 +709,40 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s" s="0">
         <v>33</v>
       </c>
-      <c r="B2" t="n" s="0">
-        <v>25.0</v>
-      </c>
-      <c r="C2" t="n" s="0">
+      <c r="B2" s="0">
+        <v>25</v>
+      </c>
+      <c r="C2" s="0">
         <v>85.5</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s" s="0">
         <v>34</v>
       </c>
-      <c r="B3" t="n" s="0">
-        <v>30.0</v>
-      </c>
-      <c r="C3" t="n" s="0">
-        <v>90.0</v>
-      </c>
-    </row>
-    <row r="4">
+      <c r="B3" s="0">
+        <v>30</v>
+      </c>
+      <c r="C3" s="0">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s" s="0">
         <v>35</v>
       </c>
-      <c r="B4" t="n" s="0">
-        <v>28.0</v>
-      </c>
-      <c r="C4" t="n" s="0">
-        <v>88.0</v>
+      <c r="B4" s="0">
+        <v>28</v>
+      </c>
+      <c r="C4" s="0">
+        <v>88</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>